--- a/Jogos_do_Dia/2023-08-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="151">
   <si>
     <t>League</t>
   </si>
@@ -133,21 +133,24 @@
     <t>Romania Liga I</t>
   </si>
   <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
+    <t>Bulgaria First League</t>
+  </si>
+  <si>
     <t>Estonia Meistriliiga</t>
   </si>
   <si>
-    <t>Bulgaria First League</t>
-  </si>
-  <si>
-    <t>Poland Ekstraklasa</t>
-  </si>
-  <si>
     <t>Austria 2. Liga</t>
   </si>
   <si>
     <t>Germany 2. Bundesliga</t>
   </si>
   <si>
+    <t>Germany 3. Liga</t>
+  </si>
+  <si>
     <t>Russia Russian Premier League</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
     <t>07:30:00</t>
   </si>
   <si>
@@ -226,63 +232,66 @@
     <t>20:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Gwangju</t>
   </si>
   <si>
     <t>FC Seoul</t>
   </si>
   <si>
+    <t>Hangzhou</t>
+  </si>
+  <si>
+    <t>Shandong Luneng</t>
+  </si>
+  <si>
+    <t>Beijing Guoan</t>
+  </si>
+  <si>
+    <t>Changchun Yatai</t>
+  </si>
+  <si>
     <t>Qingdao Jonoon</t>
   </si>
   <si>
-    <t>Changchun Yatai</t>
-  </si>
-  <si>
-    <t>Beijing Guoan</t>
-  </si>
-  <si>
-    <t>Shandong Luneng</t>
-  </si>
-  <si>
-    <t>Hangzhou</t>
-  </si>
-  <si>
     <t>Ilves</t>
   </si>
   <si>
     <t>UTA Arad</t>
   </si>
   <si>
+    <t>Jagiellonia Białystok</t>
+  </si>
+  <si>
+    <t>Cherno More</t>
+  </si>
+  <si>
     <t>Tallinna FC Flora</t>
   </si>
   <si>
-    <t>Cherno More</t>
-  </si>
-  <si>
-    <t>Jagiellonia Białystok</t>
+    <t>St. Pölten</t>
+  </si>
+  <si>
+    <t>Dornbirn</t>
+  </si>
+  <si>
+    <t>Kapfenberger SV</t>
   </si>
   <si>
     <t>SV Stripfing Weiden</t>
   </si>
   <si>
-    <t>Kapfenberger SV</t>
-  </si>
-  <si>
     <t>Horn</t>
   </si>
   <si>
-    <t>Dornbirn</t>
-  </si>
-  <si>
-    <t>St. Pölten</t>
+    <t>Hertha BSC</t>
   </si>
   <si>
     <t>Paderborn</t>
   </si>
   <si>
-    <t>Hertha BSC</t>
-  </si>
-  <si>
     <t>Hallescher FC</t>
   </si>
   <si>
@@ -301,24 +310,24 @@
     <t>Lokomotiva Zagreb</t>
   </si>
   <si>
+    <t>Aluminij</t>
+  </si>
+  <si>
     <t>Sion</t>
   </si>
   <si>
-    <t>Aluminij</t>
-  </si>
-  <si>
     <t>FC Schaffhausen</t>
   </si>
   <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
+    <t>CS U Craiova</t>
+  </si>
+  <si>
     <t>ŁKS Łódź</t>
   </si>
   <si>
-    <t>CS U Craiova</t>
-  </si>
-  <si>
     <t>Ried</t>
   </si>
   <si>
@@ -340,63 +349,66 @@
     <t>Libertad</t>
   </si>
   <si>
+    <t>Mirassol</t>
+  </si>
+  <si>
     <t>Daejeon Citizen</t>
   </si>
   <si>
     <t>Pohang Steelers</t>
   </si>
   <si>
+    <t>Wuhan Three Towns</t>
+  </si>
+  <si>
+    <t>Meizhou Hakka</t>
+  </si>
+  <si>
+    <t>Henan Jianye</t>
+  </si>
+  <si>
+    <t>Nantong Zhiyun</t>
+  </si>
+  <si>
     <t>Chengdu Better City FC</t>
   </si>
   <si>
-    <t>Nantong Zhiyun</t>
-  </si>
-  <si>
-    <t>Henan Jianye</t>
-  </si>
-  <si>
-    <t>Meizhou Hakka</t>
-  </si>
-  <si>
-    <t>Wuhan Three Towns</t>
-  </si>
-  <si>
     <t>Haka</t>
   </si>
   <si>
     <t>CSM Iaşi</t>
   </si>
   <si>
+    <t>Widzew Łódź</t>
+  </si>
+  <si>
+    <t>Etar</t>
+  </si>
+  <si>
     <t>Kuressaare</t>
   </si>
   <si>
-    <t>Etar</t>
-  </si>
-  <si>
-    <t>Widzew Łódź</t>
+    <t>Lafnitz</t>
+  </si>
+  <si>
+    <t>Grazer AK</t>
+  </si>
+  <si>
+    <t>Floridsdorfer AC</t>
   </si>
   <si>
     <t>Leoben</t>
   </si>
   <si>
-    <t>Floridsdorfer AC</t>
-  </si>
-  <si>
     <t>Liefering</t>
   </si>
   <si>
-    <t>Grazer AK</t>
-  </si>
-  <si>
-    <t>Lafnitz</t>
+    <t>Wehen Wiesbaden</t>
   </si>
   <si>
     <t>Osnabrück</t>
   </si>
   <si>
-    <t>Wehen Wiesbaden</t>
-  </si>
-  <si>
     <t>Rot-Weiss Essen</t>
   </si>
   <si>
@@ -415,24 +427,24 @@
     <t>Varaždin</t>
   </si>
   <si>
+    <t>Koper</t>
+  </si>
+  <si>
     <t>Bellinzona</t>
   </si>
   <si>
-    <t>Koper</t>
-  </si>
-  <si>
     <t>Wil</t>
   </si>
   <si>
     <t>Arda</t>
   </si>
   <si>
+    <t>Hermannstadt</t>
+  </si>
+  <si>
     <t>Korona Kielce</t>
   </si>
   <si>
-    <t>Hermannstadt</t>
-  </si>
-  <si>
     <t>Admira</t>
   </si>
   <si>
@@ -452,6 +464,9 @@
   </si>
   <si>
     <t>General Caballero JLM</t>
+  </si>
+  <si>
+    <t>Sampaio Corrêa</t>
   </si>
 </sst>
 </file>
@@ -813,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI39"/>
+  <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -934,25 +949,25 @@
         <v>45142</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G2">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>3.46</v>
+        <v>3.25</v>
       </c>
       <c r="I2">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="J2">
         <v>1.06</v>
@@ -967,10 +982,10 @@
         <v>3.3</v>
       </c>
       <c r="N2">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="O2">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="P2">
         <v>1.4</v>
@@ -1018,19 +1033,19 @@
         <v>2.64</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF2">
         <v>1.85</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1041,25 +1056,25 @@
         <v>45142</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G3">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="H3">
-        <v>3.24</v>
+        <v>3.15</v>
       </c>
       <c r="I3">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="J3">
         <v>1.04</v>
@@ -1074,10 +1089,10 @@
         <v>3.1</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="O3">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="P3">
         <v>1.44</v>
@@ -1125,19 +1140,19 @@
         <v>2.2</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1148,103 +1163,103 @@
         <v>45142</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G4">
-        <v>4.02</v>
+        <v>3.25</v>
       </c>
       <c r="H4">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="I4">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K4">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="L4">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>4.55</v>
       </c>
       <c r="N4">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O4">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="P4">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="Q4">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="R4">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="T4">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="U4">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="V4">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="W4">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="X4">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y4">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="Z4">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="AA4">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="AB4">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AC4">
         <v>8</v>
       </c>
       <c r="AD4">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AE4">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AF4">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AG4">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AH4">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="AI4">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1255,103 +1270,103 @@
         <v>45142</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G5">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="H5">
-        <v>3.35</v>
+        <v>5.75</v>
       </c>
       <c r="I5">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="J5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>22.5</v>
       </c>
       <c r="L5">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="M5">
-        <v>3.47</v>
+        <v>5.35</v>
       </c>
       <c r="N5">
-        <v>1.78</v>
+        <v>1.42</v>
       </c>
       <c r="O5">
-        <v>1.87</v>
+        <v>2.53</v>
       </c>
       <c r="P5">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="Q5">
-        <v>3.13</v>
+        <v>3.72</v>
       </c>
       <c r="R5">
-        <v>1.74</v>
+        <v>1.97</v>
       </c>
       <c r="S5">
-        <v>2.04</v>
+        <v>1.79</v>
       </c>
       <c r="T5">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="U5">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="W5">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="X5">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
       <c r="Y5">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="Z5">
         <v>1.06</v>
       </c>
       <c r="AA5">
-        <v>2.61</v>
+        <v>2.77</v>
       </c>
       <c r="AB5">
-        <v>1.73</v>
+        <v>1.18</v>
       </c>
       <c r="AC5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD5">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="AE5">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AF5">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AG5">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="AH5">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="AI5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1362,25 +1377,25 @@
         <v>45142</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G6">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="H6">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="I6">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <v>1.04</v>
@@ -1395,10 +1410,10 @@
         <v>4.3</v>
       </c>
       <c r="N6">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="O6">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="P6">
         <v>1.32</v>
@@ -1469,103 +1484,103 @@
         <v>45142</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G7">
-        <v>1.22</v>
+        <v>1.83</v>
       </c>
       <c r="H7">
-        <v>5.5</v>
+        <v>3.55</v>
       </c>
       <c r="I7">
-        <v>9.5</v>
+        <v>3.95</v>
       </c>
       <c r="J7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K7">
-        <v>22.5</v>
+        <v>12</v>
       </c>
       <c r="L7">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="M7">
-        <v>5.35</v>
+        <v>3.47</v>
       </c>
       <c r="N7">
+        <v>1.78</v>
+      </c>
+      <c r="O7">
+        <v>1.87</v>
+      </c>
+      <c r="P7">
+        <v>1.36</v>
+      </c>
+      <c r="Q7">
+        <v>3.13</v>
+      </c>
+      <c r="R7">
+        <v>1.74</v>
+      </c>
+      <c r="S7">
+        <v>2.04</v>
+      </c>
+      <c r="T7">
+        <v>1.25</v>
+      </c>
+      <c r="U7">
+        <v>1.27</v>
+      </c>
+      <c r="V7">
+        <v>1.95</v>
+      </c>
+      <c r="W7">
+        <v>1.67</v>
+      </c>
+      <c r="X7">
+        <v>0.44</v>
+      </c>
+      <c r="Y7">
         <v>1.55</v>
-      </c>
-      <c r="O7">
-        <v>2.35</v>
-      </c>
-      <c r="P7">
-        <v>1.25</v>
-      </c>
-      <c r="Q7">
-        <v>3.72</v>
-      </c>
-      <c r="R7">
-        <v>1.97</v>
-      </c>
-      <c r="S7">
-        <v>1.79</v>
-      </c>
-      <c r="T7">
-        <v>1.07</v>
-      </c>
-      <c r="U7">
-        <v>1.13</v>
-      </c>
-      <c r="V7">
-        <v>3.8</v>
-      </c>
-      <c r="W7">
-        <v>2.5</v>
-      </c>
-      <c r="X7">
-        <v>0.6</v>
-      </c>
-      <c r="Y7">
-        <v>1.71</v>
       </c>
       <c r="Z7">
         <v>1.06</v>
       </c>
       <c r="AA7">
-        <v>2.77</v>
+        <v>2.61</v>
       </c>
       <c r="AB7">
-        <v>1.18</v>
+        <v>1.73</v>
       </c>
       <c r="AC7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD7">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="AE7">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AF7">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AG7">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="AH7">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="AI7">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1576,103 +1591,103 @@
         <v>45142</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G8">
-        <v>2.85</v>
+        <v>4.02</v>
       </c>
       <c r="H8">
-        <v>3.3</v>
+        <v>3.53</v>
       </c>
       <c r="I8">
+        <v>1.96</v>
+      </c>
+      <c r="J8">
+        <v>1.05</v>
+      </c>
+      <c r="K8">
+        <v>7.8</v>
+      </c>
+      <c r="L8">
+        <v>1.25</v>
+      </c>
+      <c r="M8">
+        <v>3.5</v>
+      </c>
+      <c r="N8">
+        <v>1.87</v>
+      </c>
+      <c r="O8">
+        <v>1.93</v>
+      </c>
+      <c r="P8">
+        <v>1.37</v>
+      </c>
+      <c r="Q8">
+        <v>3.08</v>
+      </c>
+      <c r="R8">
+        <v>1.73</v>
+      </c>
+      <c r="S8">
         <v>2.05</v>
       </c>
-      <c r="J8">
-        <v>1.03</v>
-      </c>
-      <c r="K8">
-        <v>15</v>
-      </c>
-      <c r="L8">
-        <v>1.17</v>
-      </c>
-      <c r="M8">
-        <v>4.55</v>
-      </c>
-      <c r="N8">
-        <v>1.75</v>
-      </c>
-      <c r="O8">
-        <v>1.95</v>
-      </c>
-      <c r="P8">
-        <v>1.28</v>
-      </c>
-      <c r="Q8">
-        <v>3.2</v>
-      </c>
-      <c r="R8">
-        <v>1.62</v>
-      </c>
-      <c r="S8">
-        <v>2.23</v>
-      </c>
       <c r="T8">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="U8">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="V8">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="W8">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="X8">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Y8">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="Z8">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AA8">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="AB8">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AC8">
         <v>8</v>
       </c>
       <c r="AD8">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AE8">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AF8">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AG8">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AH8">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="AI8">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1683,25 +1698,25 @@
         <v>45142</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G9">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="H9">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I9">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J9">
         <v>1.07</v>
@@ -1716,10 +1731,10 @@
         <v>3.28</v>
       </c>
       <c r="N9">
-        <v>2.05</v>
+        <v>2.21</v>
       </c>
       <c r="O9">
-        <v>1.77</v>
+        <v>1.58</v>
       </c>
       <c r="P9">
         <v>1.42</v>
@@ -1767,10 +1782,10 @@
         <v>2.54</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG9">
         <v>1.6</v>
@@ -1790,25 +1805,25 @@
         <v>45142</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G10">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="H10">
-        <v>3.16</v>
+        <v>3.21</v>
       </c>
       <c r="I10">
-        <v>3.59</v>
+        <v>3.89</v>
       </c>
       <c r="J10">
         <v>1.07</v>
@@ -1817,16 +1832,16 @@
         <v>6.7</v>
       </c>
       <c r="L10">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M10">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>2.28</v>
       </c>
       <c r="O10">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="P10">
         <v>1.51</v>
@@ -1883,10 +1898,10 @@
         <v>2.5</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1897,103 +1912,103 @@
         <v>45142</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G11">
-        <v>1.12</v>
+        <v>2.28</v>
       </c>
       <c r="H11">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11">
-        <v>16.5</v>
+        <v>2.79</v>
       </c>
       <c r="J11">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K11">
-        <v>28</v>
+        <v>9.5</v>
       </c>
       <c r="L11">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="M11">
-        <v>5.65</v>
+        <v>3.4</v>
       </c>
       <c r="N11">
-        <v>1.42</v>
+        <v>1.91</v>
       </c>
       <c r="O11">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="P11">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="Q11">
-        <v>3.94</v>
+        <v>2.8</v>
       </c>
       <c r="R11">
+        <v>1.68</v>
+      </c>
+      <c r="S11">
+        <v>2.05</v>
+      </c>
+      <c r="T11">
+        <v>1.39</v>
+      </c>
+      <c r="U11">
+        <v>1.3</v>
+      </c>
+      <c r="V11">
+        <v>1.58</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>1.62</v>
+      </c>
+      <c r="Z11">
+        <v>0.99</v>
+      </c>
+      <c r="AA11">
+        <v>2.61</v>
+      </c>
+      <c r="AB11">
+        <v>2.1</v>
+      </c>
+      <c r="AC11">
+        <v>8</v>
+      </c>
+      <c r="AD11">
+        <v>1.91</v>
+      </c>
+      <c r="AE11">
+        <v>1.17</v>
+      </c>
+      <c r="AF11">
+        <v>1.3</v>
+      </c>
+      <c r="AG11">
+        <v>1.54</v>
+      </c>
+      <c r="AH11">
         <v>1.9</v>
       </c>
-      <c r="S11">
-        <v>1.83</v>
-      </c>
-      <c r="T11">
-        <v>1.05</v>
-      </c>
-      <c r="U11">
-        <v>1.09</v>
-      </c>
-      <c r="V11">
-        <v>3.5</v>
-      </c>
-      <c r="W11">
-        <v>1.91</v>
-      </c>
-      <c r="X11">
-        <v>1.8</v>
-      </c>
-      <c r="Y11">
-        <v>2.22</v>
-      </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-      <c r="AA11">
-        <v>4.22</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -2004,25 +2019,25 @@
         <v>45142</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G12">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H12">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I12">
-        <v>6.58</v>
+        <v>6.5</v>
       </c>
       <c r="J12">
         <v>1.05</v>
@@ -2037,10 +2052,10 @@
         <v>3.75</v>
       </c>
       <c r="N12">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="O12">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="P12">
         <v>1.36</v>
@@ -2111,103 +2126,103 @@
         <v>45142</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G13">
-        <v>2.34</v>
+        <v>1.2</v>
       </c>
       <c r="H13">
-        <v>3.54</v>
+        <v>6.25</v>
       </c>
       <c r="I13">
-        <v>2.91</v>
+        <v>10</v>
       </c>
       <c r="J13">
+        <v>1.01</v>
+      </c>
+      <c r="K13">
+        <v>28</v>
+      </c>
+      <c r="L13">
+        <v>1.09</v>
+      </c>
+      <c r="M13">
+        <v>5.65</v>
+      </c>
+      <c r="N13">
+        <v>1.35</v>
+      </c>
+      <c r="O13">
+        <v>2.55</v>
+      </c>
+      <c r="P13">
+        <v>1.21</v>
+      </c>
+      <c r="Q13">
+        <v>3.94</v>
+      </c>
+      <c r="R13">
+        <v>1.9</v>
+      </c>
+      <c r="S13">
+        <v>1.83</v>
+      </c>
+      <c r="T13">
         <v>1.05</v>
       </c>
-      <c r="K13">
-        <v>9.5</v>
-      </c>
-      <c r="L13">
-        <v>1.27</v>
-      </c>
-      <c r="M13">
-        <v>3.4</v>
-      </c>
-      <c r="N13">
-        <v>1.79</v>
-      </c>
-      <c r="O13">
-        <v>1.82</v>
-      </c>
-      <c r="P13">
-        <v>1.37</v>
-      </c>
-      <c r="Q13">
-        <v>2.8</v>
-      </c>
-      <c r="R13">
-        <v>1.68</v>
-      </c>
-      <c r="S13">
-        <v>2.05</v>
-      </c>
-      <c r="T13">
-        <v>1.39</v>
-      </c>
       <c r="U13">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="V13">
-        <v>1.58</v>
+        <v>3.5</v>
       </c>
       <c r="W13">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Y13">
-        <v>1.62</v>
+        <v>2.22</v>
       </c>
       <c r="Z13">
-        <v>0.99</v>
+        <v>2</v>
       </c>
       <c r="AA13">
-        <v>2.61</v>
+        <v>4.22</v>
       </c>
       <c r="AB13">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>2.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2218,25 +2233,25 @@
         <v>45142</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G14">
-        <v>2.42</v>
+        <v>1.73</v>
       </c>
       <c r="H14">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I14">
-        <v>2.68</v>
+        <v>4.2</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2251,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O14">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2263,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S14">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -2325,25 +2340,25 @@
         <v>45142</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G15">
-        <v>3.69</v>
+        <v>3.8</v>
       </c>
       <c r="H15">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="I15">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2358,10 +2373,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="O15">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2370,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -2400,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2415,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -2432,25 +2447,25 @@
         <v>45142</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G16">
-        <v>2.79</v>
+        <v>3.45</v>
       </c>
       <c r="H16">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I16">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2465,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O16">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2477,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="S16">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2507,13 +2522,13 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2522,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -2539,25 +2554,25 @@
         <v>45142</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G17">
-        <v>3.82</v>
+        <v>2.03</v>
       </c>
       <c r="H17">
-        <v>3.98</v>
+        <v>3.45</v>
       </c>
       <c r="I17">
-        <v>1.84</v>
+        <v>2.94</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2572,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O17">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2646,25 +2661,25 @@
         <v>45142</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G18">
-        <v>1.84</v>
+        <v>2.41</v>
       </c>
       <c r="H18">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I18">
-        <v>4.01</v>
+        <v>2.36</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2679,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="O18">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2691,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="S18">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2721,13 +2736,13 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -2736,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -2753,61 +2768,61 @@
         <v>45142</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G19">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H19">
-        <v>4.3</v>
+        <v>4.04</v>
       </c>
       <c r="I19">
-        <v>5.1</v>
+        <v>4.76</v>
       </c>
       <c r="J19">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K19">
-        <v>15.5</v>
+        <v>14.1</v>
       </c>
       <c r="L19">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="M19">
-        <v>4.4</v>
+        <v>4.05</v>
       </c>
       <c r="N19">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O19">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="P19">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Q19">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="R19">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="S19">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
         <v>1.18</v>
       </c>
       <c r="U19">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="V19">
         <v>2.25</v>
@@ -2831,25 +2846,25 @@
         <v>1.45</v>
       </c>
       <c r="AC19">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD19">
-        <v>3.19</v>
+        <v>3.31</v>
       </c>
       <c r="AE19">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AF19">
         <v>1.25</v>
       </c>
       <c r="AG19">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AH19">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AI19">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2860,61 +2875,61 @@
         <v>45142</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G20">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H20">
-        <v>4.04</v>
+        <v>4.53</v>
       </c>
       <c r="I20">
-        <v>4.76</v>
+        <v>5.27</v>
       </c>
       <c r="J20">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K20">
-        <v>14.1</v>
+        <v>15.5</v>
       </c>
       <c r="L20">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="M20">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="N20">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="O20">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="P20">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Q20">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="R20">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="T20">
         <v>1.18</v>
       </c>
       <c r="U20">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="V20">
         <v>2.25</v>
@@ -2938,54 +2953,54 @@
         <v>1.45</v>
       </c>
       <c r="AC20">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD20">
-        <v>3.31</v>
+        <v>3.19</v>
       </c>
       <c r="AE20">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AF20">
         <v>1.25</v>
       </c>
       <c r="AG20">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AH20">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AI20">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="21" spans="1:35">
-      <c r="A21">
-        <v>9741</v>
+      <c r="A21" t="s">
+        <v>44</v>
       </c>
       <c r="B21" s="2">
         <v>45142</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G21">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="H21">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I21">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J21">
         <v>1.05</v>
@@ -3000,10 +3015,10 @@
         <v>3.6</v>
       </c>
       <c r="N21">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O21">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="P21">
         <v>1.36</v>
@@ -3042,13 +3057,13 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AE21">
         <v>1.26</v>
@@ -3068,28 +3083,28 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2">
         <v>45142</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G22">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H22">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I22">
         <v>5.4</v>
@@ -3107,10 +3122,10 @@
         <v>3.32</v>
       </c>
       <c r="N22">
-        <v>1.78</v>
+        <v>1.97</v>
       </c>
       <c r="O22">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="P22">
         <v>1.38</v>
@@ -3175,31 +3190,31 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2">
         <v>45142</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G23">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="H23">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="I23">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="J23">
         <v>1.05</v>
@@ -3214,10 +3229,10 @@
         <v>3.3</v>
       </c>
       <c r="N23">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="O23">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="P23">
         <v>1.4</v>
@@ -3256,57 +3271,57 @@
         <v>2.57</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2">
         <v>45142</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G24">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="H24">
-        <v>3.5</v>
+        <v>4.04</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>5.53</v>
       </c>
       <c r="J24">
         <v>1.05</v>
@@ -3321,10 +3336,10 @@
         <v>3.5</v>
       </c>
       <c r="N24">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="O24">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="P24">
         <v>1.36</v>
@@ -3389,31 +3404,31 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2">
         <v>45142</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G25">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="H25">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I25">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3428,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="O25">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3496,22 +3511,22 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2">
         <v>45142</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G26">
         <v>1.66</v>
@@ -3577,111 +3592,111 @@
         <v>3.55</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2">
         <v>45142</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G27">
-        <v>1.27</v>
+        <v>2.94</v>
       </c>
       <c r="H27">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="I27">
-        <v>9.949999999999999</v>
+        <v>2.17</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N27">
+        <v>1.88</v>
+      </c>
+      <c r="O27">
+        <v>1.88</v>
+      </c>
+      <c r="P27">
+        <v>1.36</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>1.69</v>
+      </c>
+      <c r="S27">
+        <v>2.11</v>
+      </c>
+      <c r="T27">
+        <v>1.61</v>
+      </c>
+      <c r="U27">
+        <v>1.3</v>
+      </c>
+      <c r="V27">
+        <v>1.38</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
         <v>1.5</v>
       </c>
-      <c r="O27">
-        <v>2.4</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>1.83</v>
-      </c>
-      <c r="S27">
-        <v>1.83</v>
-      </c>
-      <c r="T27">
-        <v>1.04</v>
-      </c>
-      <c r="U27">
-        <v>1.14</v>
-      </c>
-      <c r="V27">
-        <v>3.5</v>
-      </c>
-      <c r="W27">
-        <v>3</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27">
-        <v>1.29</v>
-      </c>
       <c r="Z27">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>2.81</v>
+        <v>1.5</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -3710,85 +3725,85 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2">
         <v>45142</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G28">
-        <v>2.93</v>
+        <v>1.3</v>
       </c>
       <c r="H28">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="I28">
-        <v>2.35</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
       <c r="O28">
-        <v>1.85</v>
+        <v>2.52</v>
       </c>
       <c r="P28">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>1.83</v>
+      </c>
+      <c r="S28">
+        <v>1.83</v>
+      </c>
+      <c r="T28">
+        <v>1.04</v>
+      </c>
+      <c r="U28">
+        <v>1.14</v>
+      </c>
+      <c r="V28">
+        <v>3.5</v>
+      </c>
+      <c r="W28">
         <v>3</v>
       </c>
-      <c r="R28">
-        <v>1.69</v>
-      </c>
-      <c r="S28">
-        <v>2.11</v>
-      </c>
-      <c r="T28">
-        <v>1.61</v>
-      </c>
-      <c r="U28">
-        <v>1.3</v>
-      </c>
-      <c r="V28">
-        <v>1.38</v>
-      </c>
-      <c r="W28">
+      <c r="X28">
         <v>1</v>
       </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
       <c r="Y28">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AA28">
-        <v>1.5</v>
+        <v>2.81</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3817,31 +3832,31 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2">
         <v>45142</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G29">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="H29">
-        <v>3.84</v>
+        <v>3.3</v>
       </c>
       <c r="I29">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3856,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="O29">
-        <v>2.3</v>
+        <v>2.49</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3868,10 +3883,10 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S29">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T29">
         <v>1.57</v>
@@ -3930,25 +3945,25 @@
         <v>45142</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G30">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="H30">
-        <v>3.56</v>
+        <v>3.3</v>
       </c>
       <c r="I30">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="J30">
         <v>1.06</v>
@@ -3963,10 +3978,10 @@
         <v>3.4</v>
       </c>
       <c r="N30">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="O30">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="P30">
         <v>1.4</v>
@@ -4031,216 +4046,216 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2">
         <v>45142</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31">
+        <v>1.6</v>
+      </c>
+      <c r="H31">
+        <v>3.7</v>
+      </c>
+      <c r="I31">
+        <v>5.5</v>
+      </c>
+      <c r="J31">
+        <v>1.06</v>
+      </c>
+      <c r="K31">
+        <v>7.1</v>
+      </c>
+      <c r="L31">
+        <v>1.5</v>
+      </c>
+      <c r="M31">
+        <v>2.35</v>
+      </c>
+      <c r="N31">
+        <v>2.27</v>
+      </c>
+      <c r="O31">
+        <v>1.45</v>
+      </c>
+      <c r="P31">
+        <v>1.44</v>
+      </c>
+      <c r="Q31">
+        <v>2.6</v>
+      </c>
+      <c r="R31">
+        <v>2.38</v>
+      </c>
+      <c r="S31">
+        <v>1.55</v>
+      </c>
+      <c r="T31">
+        <v>1.15</v>
+      </c>
+      <c r="U31">
+        <v>1.27</v>
+      </c>
+      <c r="V31">
+        <v>2.2</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
         <v>3</v>
       </c>
-      <c r="E31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31">
-        <v>2.43</v>
-      </c>
-      <c r="H31">
-        <v>3.34</v>
-      </c>
-      <c r="I31">
-        <v>2.92</v>
-      </c>
-      <c r="J31">
-        <v>1.02</v>
-      </c>
-      <c r="K31">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="L31">
-        <v>1.29</v>
-      </c>
-      <c r="M31">
-        <v>3.2</v>
-      </c>
-      <c r="N31">
-        <v>2.1</v>
-      </c>
-      <c r="O31">
-        <v>1.67</v>
-      </c>
-      <c r="P31">
-        <v>1.41</v>
-      </c>
-      <c r="Q31">
-        <v>2.79</v>
-      </c>
-      <c r="R31">
-        <v>1.77</v>
-      </c>
-      <c r="S31">
-        <v>1.98</v>
-      </c>
-      <c r="T31">
-        <v>1.43</v>
-      </c>
-      <c r="U31">
-        <v>1.32</v>
-      </c>
-      <c r="V31">
-        <v>1.55</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="AB31">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="AC31">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD31">
-        <v>2.53</v>
+        <v>4.43</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AG31">
-        <v>1.43</v>
+        <v>2.8</v>
       </c>
       <c r="AH31">
-        <v>1.8</v>
+        <v>3.56</v>
       </c>
       <c r="AI31">
-        <v>2.25</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>45142</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G32">
-        <v>1.81</v>
+        <v>2.46</v>
       </c>
       <c r="H32">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I32">
-        <v>4.94</v>
+        <v>2.76</v>
       </c>
       <c r="J32">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K32">
-        <v>7.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L32">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="M32">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N32">
-        <v>2.38</v>
+        <v>2.03</v>
       </c>
       <c r="O32">
+        <v>1.69</v>
+      </c>
+      <c r="P32">
+        <v>1.41</v>
+      </c>
+      <c r="Q32">
+        <v>2.79</v>
+      </c>
+      <c r="R32">
+        <v>1.77</v>
+      </c>
+      <c r="S32">
+        <v>1.98</v>
+      </c>
+      <c r="T32">
+        <v>1.43</v>
+      </c>
+      <c r="U32">
+        <v>1.32</v>
+      </c>
+      <c r="V32">
         <v>1.55</v>
       </c>
-      <c r="P32">
-        <v>1.44</v>
-      </c>
-      <c r="Q32">
-        <v>2.6</v>
-      </c>
-      <c r="R32">
-        <v>2.38</v>
-      </c>
-      <c r="S32">
-        <v>1.55</v>
-      </c>
-      <c r="T32">
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>1.69</v>
+      </c>
+      <c r="AC32">
+        <v>8.5</v>
+      </c>
+      <c r="AD32">
+        <v>2.53</v>
+      </c>
+      <c r="AE32">
         <v>1.15</v>
       </c>
-      <c r="U32">
-        <v>1.27</v>
-      </c>
-      <c r="V32">
-        <v>2.2</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
-        <v>3</v>
-      </c>
-      <c r="Y32">
-        <v>1.96</v>
-      </c>
-      <c r="Z32">
-        <v>1.37</v>
-      </c>
-      <c r="AA32">
-        <v>3.33</v>
-      </c>
-      <c r="AB32">
-        <v>1.31</v>
-      </c>
-      <c r="AC32">
-        <v>9</v>
-      </c>
-      <c r="AD32">
-        <v>4.43</v>
-      </c>
-      <c r="AE32">
-        <v>1.57</v>
-      </c>
       <c r="AF32">
-        <v>2.07</v>
+        <v>1.25</v>
       </c>
       <c r="AG32">
-        <v>2.8</v>
+        <v>1.43</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -4251,25 +4266,25 @@
         <v>45142</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G33">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="H33">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="I33">
-        <v>4.85</v>
+        <v>3.9</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -4284,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O33">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -4352,31 +4367,31 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2">
         <v>45142</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G34">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H34">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I34">
-        <v>4.16</v>
+        <v>3.65</v>
       </c>
       <c r="J34">
         <v>1.08</v>
@@ -4391,10 +4406,10 @@
         <v>2.95</v>
       </c>
       <c r="N34">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="O34">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="P34">
         <v>1.46</v>
@@ -4433,57 +4448,57 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG34">
         <v>1.93</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2">
         <v>45142</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D35">
         <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G35">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H35">
-        <v>3.78</v>
+        <v>3.65</v>
       </c>
       <c r="I35">
-        <v>4.72</v>
+        <v>4.5</v>
       </c>
       <c r="J35">
         <v>1.05</v>
@@ -4498,10 +4513,10 @@
         <v>3.25</v>
       </c>
       <c r="N35">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="O35">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="P35">
         <v>1.37</v>
@@ -4540,57 +4555,57 @@
         <v>2.87</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AH35">
         <v>1.9</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2">
         <v>45142</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D36">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F36" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G36">
-        <v>2.93</v>
+        <v>2.74</v>
       </c>
       <c r="H36">
-        <v>3.46</v>
+        <v>3.15</v>
       </c>
       <c r="I36">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="J36">
         <v>1.02</v>
@@ -4605,10 +4620,10 @@
         <v>3.2</v>
       </c>
       <c r="N36">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="O36">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P36">
         <v>1.41</v>
@@ -4647,57 +4662,57 @@
         <v>2.93</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2">
         <v>45142</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G37">
-        <v>3.29</v>
+        <v>3.1</v>
       </c>
       <c r="H37">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I37">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="J37">
         <v>1.04</v>
@@ -4712,10 +4727,10 @@
         <v>4</v>
       </c>
       <c r="N37">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O37">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="P37">
         <v>1.33</v>
@@ -4754,13 +4769,13 @@
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AE37">
         <v>1.25</v>
@@ -4780,31 +4795,31 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2">
         <v>45142</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F38" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G38">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="H38">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="I38">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="J38">
         <v>1.03</v>
@@ -4819,10 +4834,10 @@
         <v>3.4</v>
       </c>
       <c r="N38">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="O38">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="P38">
         <v>1.4</v>
@@ -4861,13 +4876,13 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE38">
         <v>1.34</v>
@@ -4887,31 +4902,31 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2">
         <v>45142</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F39" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G39">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H39">
-        <v>4.83</v>
+        <v>4.6</v>
       </c>
       <c r="I39">
-        <v>7.33</v>
+        <v>7</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -4926,10 +4941,10 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="O39">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -4990,6 +5005,113 @@
       </c>
       <c r="AI39">
         <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40">
+        <v>1.73</v>
+      </c>
+      <c r="H40">
+        <v>3.4</v>
+      </c>
+      <c r="I40">
+        <v>4.7</v>
+      </c>
+      <c r="J40">
+        <v>1.08</v>
+      </c>
+      <c r="K40">
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <v>1.4</v>
+      </c>
+      <c r="M40">
+        <v>2.85</v>
+      </c>
+      <c r="N40">
+        <v>2.13</v>
+      </c>
+      <c r="O40">
+        <v>1.59</v>
+      </c>
+      <c r="P40">
+        <v>1.46</v>
+      </c>
+      <c r="Q40">
+        <v>2.5</v>
+      </c>
+      <c r="R40">
+        <v>2.2</v>
+      </c>
+      <c r="S40">
+        <v>1.6</v>
+      </c>
+      <c r="T40">
+        <v>1.14</v>
+      </c>
+      <c r="U40">
+        <v>1.27</v>
+      </c>
+      <c r="V40">
+        <v>2.2</v>
+      </c>
+      <c r="W40">
+        <v>1.91</v>
+      </c>
+      <c r="X40">
+        <v>0.8</v>
+      </c>
+      <c r="Y40">
+        <v>1.76</v>
+      </c>
+      <c r="Z40">
+        <v>1.2</v>
+      </c>
+      <c r="AA40">
+        <v>2.96</v>
+      </c>
+      <c r="AB40">
+        <v>1.45</v>
+      </c>
+      <c r="AC40">
+        <v>8</v>
+      </c>
+      <c r="AD40">
+        <v>3.5</v>
+      </c>
+      <c r="AE40">
+        <v>1.19</v>
+      </c>
+      <c r="AF40">
+        <v>1.43</v>
+      </c>
+      <c r="AG40">
+        <v>1.74</v>
+      </c>
+      <c r="AH40">
+        <v>2.13</v>
+      </c>
+      <c r="AI40">
+        <v>2.63</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -313,27 +313,27 @@
     <t>Aluminij</t>
   </si>
   <si>
+    <t>Botev Plovdiv</t>
+  </si>
+  <si>
+    <t>FC Schaffhausen</t>
+  </si>
+  <si>
     <t>Sion</t>
   </si>
   <si>
-    <t>FC Schaffhausen</t>
-  </si>
-  <si>
-    <t>Botev Plovdiv</t>
+    <t>Ružomberok</t>
+  </si>
+  <si>
+    <t>Ried</t>
+  </si>
+  <si>
+    <t>ŁKS Łódź</t>
   </si>
   <si>
     <t>CS U Craiova</t>
   </si>
   <si>
-    <t>ŁKS Łódź</t>
-  </si>
-  <si>
-    <t>Ried</t>
-  </si>
-  <si>
-    <t>Ružomberok</t>
-  </si>
-  <si>
     <t>Bohemians</t>
   </si>
   <si>
@@ -430,25 +430,25 @@
     <t>Koper</t>
   </si>
   <si>
+    <t>Arda</t>
+  </si>
+  <si>
+    <t>Wil</t>
+  </si>
+  <si>
     <t>Bellinzona</t>
   </si>
   <si>
-    <t>Wil</t>
-  </si>
-  <si>
-    <t>Arda</t>
+    <t>Skalica</t>
+  </si>
+  <si>
+    <t>Admira</t>
+  </si>
+  <si>
+    <t>Korona Kielce</t>
   </si>
   <si>
     <t>Hermannstadt</t>
-  </si>
-  <si>
-    <t>Korona Kielce</t>
-  </si>
-  <si>
-    <t>Admira</t>
-  </si>
-  <si>
-    <t>Skalica</t>
   </si>
   <si>
     <t>Drogheda United</t>
@@ -961,10 +961,10 @@
         <v>112</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H2">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2">
         <v>3.15</v>
@@ -982,10 +982,10 @@
         <v>3.3</v>
       </c>
       <c r="N2">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="O2">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="P2">
         <v>1.4</v>
@@ -1068,13 +1068,13 @@
         <v>113</v>
       </c>
       <c r="G3">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H3">
         <v>3.15</v>
       </c>
       <c r="I3">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="J3">
         <v>1.04</v>
@@ -1089,10 +1089,10 @@
         <v>3.1</v>
       </c>
       <c r="N3">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="P3">
         <v>1.44</v>
@@ -1196,10 +1196,10 @@
         <v>4.55</v>
       </c>
       <c r="N4">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="O4">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="P4">
         <v>1.28</v>
@@ -1303,10 +1303,10 @@
         <v>5.35</v>
       </c>
       <c r="N5">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="O5">
-        <v>2.53</v>
+        <v>2.35</v>
       </c>
       <c r="P5">
         <v>1.25</v>
@@ -1410,10 +1410,10 @@
         <v>4.3</v>
       </c>
       <c r="N6">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="O6">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P6">
         <v>1.32</v>
@@ -1517,10 +1517,10 @@
         <v>3.47</v>
       </c>
       <c r="N7">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="O7">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="P7">
         <v>1.36</v>
@@ -1710,13 +1710,13 @@
         <v>119</v>
       </c>
       <c r="G9">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="H9">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I9">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J9">
         <v>1.07</v>
@@ -1731,10 +1731,10 @@
         <v>3.28</v>
       </c>
       <c r="N9">
-        <v>2.21</v>
+        <v>2.05</v>
       </c>
       <c r="O9">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="P9">
         <v>1.42</v>
@@ -1817,13 +1817,13 @@
         <v>120</v>
       </c>
       <c r="G10">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H10">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="I10">
-        <v>3.89</v>
+        <v>3.65</v>
       </c>
       <c r="J10">
         <v>1.07</v>
@@ -1838,10 +1838,10 @@
         <v>2.4</v>
       </c>
       <c r="N10">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="O10">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="P10">
         <v>1.51</v>
@@ -1924,13 +1924,13 @@
         <v>121</v>
       </c>
       <c r="G11">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H11">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I11">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="J11">
         <v>1.05</v>
@@ -1945,10 +1945,10 @@
         <v>3.4</v>
       </c>
       <c r="N11">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="O11">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="P11">
         <v>1.37</v>
@@ -2052,10 +2052,10 @@
         <v>3.75</v>
       </c>
       <c r="N12">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="O12">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="P12">
         <v>1.36</v>
@@ -2094,28 +2094,28 @@
         <v>2.64</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2159,10 +2159,10 @@
         <v>5.65</v>
       </c>
       <c r="N13">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="O13">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="P13">
         <v>1.21</v>
@@ -2254,44 +2254,44 @@
         <v>4.2</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N14">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="O14">
+        <v>2.1</v>
+      </c>
+      <c r="P14">
+        <v>1.3</v>
+      </c>
+      <c r="Q14">
+        <v>3.25</v>
+      </c>
+      <c r="R14">
+        <v>1.73</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>1.15</v>
+      </c>
+      <c r="U14">
+        <v>1.18</v>
+      </c>
+      <c r="V14">
         <v>2.15</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1.67</v>
-      </c>
-      <c r="S14">
-        <v>2.1</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
       <c r="W14">
         <v>0</v>
       </c>
@@ -2308,25 +2308,25 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -2361,43 +2361,43 @@
         <v>1.83</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="N15">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O15">
         <v>2.3</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="R15">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S15">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -2415,28 +2415,28 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="AC15">
         <v>9.5</v>
       </c>
       <c r="AD15">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG15">
-        <v>1.74</v>
+        <v>2.38</v>
       </c>
       <c r="AH15">
         <v>2.15</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2468,28 +2468,28 @@
         <v>1.97</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N16">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O16">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="R16">
         <v>1.73</v>
@@ -2498,13 +2498,13 @@
         <v>2</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2531,10 +2531,10 @@
         <v>1.71</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG16">
         <v>1.79</v>
@@ -2543,7 +2543,7 @@
         <v>2.22</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2566,37 +2566,37 @@
         <v>127</v>
       </c>
       <c r="G17">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="H17">
         <v>3.45</v>
       </c>
       <c r="I17">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="N17">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="O17">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R17">
         <v>1.57</v>
@@ -2605,13 +2605,13 @@
         <v>2.25</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -2629,28 +2629,28 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2673,52 +2673,52 @@
         <v>128</v>
       </c>
       <c r="G18">
-        <v>2.41</v>
+        <v>2.95</v>
       </c>
       <c r="H18">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I18">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N18">
+        <v>1.63</v>
+      </c>
+      <c r="O18">
+        <v>2.2</v>
+      </c>
+      <c r="P18">
+        <v>1.25</v>
+      </c>
+      <c r="Q18">
+        <v>3.6</v>
+      </c>
+      <c r="R18">
         <v>1.5</v>
       </c>
-      <c r="O18">
-        <v>2.4</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>1.44</v>
-      </c>
       <c r="S18">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2748,16 +2748,16 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AG18">
-        <v>1.68</v>
+        <v>2.1</v>
       </c>
       <c r="AH18">
         <v>2.07</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2887,13 +2887,13 @@
         <v>130</v>
       </c>
       <c r="G20">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H20">
-        <v>4.53</v>
+        <v>3.95</v>
       </c>
       <c r="I20">
-        <v>5.27</v>
+        <v>4.6</v>
       </c>
       <c r="J20">
         <v>1.02</v>
@@ -2908,10 +2908,10 @@
         <v>4.4</v>
       </c>
       <c r="N20">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="O20">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="P20">
         <v>1.28</v>
@@ -2994,13 +2994,13 @@
         <v>131</v>
       </c>
       <c r="G21">
-        <v>1.99</v>
+        <v>2.35</v>
       </c>
       <c r="H21">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I21">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="J21">
         <v>1.05</v>
@@ -3015,10 +3015,10 @@
         <v>3.6</v>
       </c>
       <c r="N21">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="P21">
         <v>1.36</v>
@@ -3101,13 +3101,13 @@
         <v>132</v>
       </c>
       <c r="G22">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H22">
-        <v>3.75</v>
+        <v>4.38</v>
       </c>
       <c r="I22">
-        <v>5.4</v>
+        <v>5.83</v>
       </c>
       <c r="J22">
         <v>1.02</v>
@@ -3208,13 +3208,13 @@
         <v>133</v>
       </c>
       <c r="G23">
-        <v>3.02</v>
+        <v>3.4</v>
       </c>
       <c r="H23">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="I23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="J23">
         <v>1.05</v>
@@ -3229,10 +3229,10 @@
         <v>3.3</v>
       </c>
       <c r="N23">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="P23">
         <v>1.4</v>
@@ -3315,13 +3315,13 @@
         <v>134</v>
       </c>
       <c r="G24">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="H24">
-        <v>4.04</v>
+        <v>3.6</v>
       </c>
       <c r="I24">
-        <v>5.53</v>
+        <v>4.7</v>
       </c>
       <c r="J24">
         <v>1.05</v>
@@ -3336,10 +3336,10 @@
         <v>3.5</v>
       </c>
       <c r="N24">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="O24">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="P24">
         <v>1.36</v>
@@ -3431,34 +3431,34 @@
         <v>5</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="N25">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="O25">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R25">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S25">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T25">
         <v>1.12</v>
@@ -3500,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3636,13 +3636,13 @@
         <v>137</v>
       </c>
       <c r="G27">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="H27">
         <v>3.2</v>
       </c>
       <c r="I27">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="J27">
         <v>1.06</v>
@@ -3657,10 +3657,10 @@
         <v>3.4</v>
       </c>
       <c r="N27">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="O27">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="P27">
         <v>1.36</v>
@@ -3699,33 +3699,33 @@
         <v>1.5</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2">
         <v>45142</v>
@@ -3734,7 +3734,7 @@
         <v>67</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
         <v>99</v>
@@ -3743,91 +3743,91 @@
         <v>138</v>
       </c>
       <c r="G28">
+        <v>2.3</v>
+      </c>
+      <c r="H28">
+        <v>3.2</v>
+      </c>
+      <c r="I28">
+        <v>2.95</v>
+      </c>
+      <c r="J28">
+        <v>1.06</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+      <c r="L28">
         <v>1.3</v>
       </c>
-      <c r="H28">
-        <v>5.5</v>
-      </c>
-      <c r="I28">
-        <v>8</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
       <c r="M28">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N28">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="O28">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="R28">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="S28">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>1.04</v>
+        <v>1.33</v>
       </c>
       <c r="U28">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="V28">
-        <v>3.5</v>
+        <v>1.71</v>
       </c>
       <c r="W28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="Z28">
-        <v>1.52</v>
+        <v>2.08</v>
       </c>
       <c r="AA28">
-        <v>2.81</v>
+        <v>3.47</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3850,25 +3850,25 @@
         <v>139</v>
       </c>
       <c r="G29">
-        <v>2.61</v>
+        <v>3.2</v>
       </c>
       <c r="H29">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I29">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N29">
         <v>1.45</v>
@@ -3877,10 +3877,10 @@
         <v>2.49</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="R29">
         <v>1.5</v>
@@ -3925,13 +3925,13 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2">
         <v>45142</v>
@@ -3948,7 +3948,7 @@
         <v>67</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
         <v>101</v>
@@ -3957,67 +3957,67 @@
         <v>140</v>
       </c>
       <c r="G30">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H30">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="I30">
-        <v>2.74</v>
+        <v>8</v>
       </c>
       <c r="J30">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L30">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="M30">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N30">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="P30">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q30">
-        <v>2.83</v>
+        <v>3.75</v>
       </c>
       <c r="R30">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T30">
-        <v>1.33</v>
+        <v>1.04</v>
       </c>
       <c r="U30">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="V30">
-        <v>1.71</v>
+        <v>3.5</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="Z30">
-        <v>2.08</v>
+        <v>1.52</v>
       </c>
       <c r="AA30">
-        <v>3.47</v>
+        <v>2.81</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -4035,18 +4035,18 @@
         <v>0</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2">
         <v>45142</v>
@@ -4055,7 +4055,7 @@
         <v>68</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
         <v>102</v>
@@ -4064,96 +4064,96 @@
         <v>141</v>
       </c>
       <c r="G31">
+        <v>1.95</v>
+      </c>
+      <c r="H31">
+        <v>3.35</v>
+      </c>
+      <c r="I31">
+        <v>3.65</v>
+      </c>
+      <c r="J31">
+        <v>1.08</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>1.36</v>
+      </c>
+      <c r="M31">
+        <v>2.95</v>
+      </c>
+      <c r="N31">
+        <v>2.15</v>
+      </c>
+      <c r="O31">
+        <v>1.66</v>
+      </c>
+      <c r="P31">
+        <v>1.46</v>
+      </c>
+      <c r="Q31">
+        <v>2.55</v>
+      </c>
+      <c r="R31">
+        <v>1.9</v>
+      </c>
+      <c r="S31">
+        <v>1.83</v>
+      </c>
+      <c r="T31">
+        <v>1.22</v>
+      </c>
+      <c r="U31">
+        <v>1.25</v>
+      </c>
+      <c r="V31">
+        <v>1.68</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
         <v>1.6</v>
       </c>
-      <c r="H31">
-        <v>3.7</v>
-      </c>
-      <c r="I31">
-        <v>5.5</v>
-      </c>
-      <c r="J31">
-        <v>1.06</v>
-      </c>
-      <c r="K31">
-        <v>7.1</v>
-      </c>
-      <c r="L31">
-        <v>1.5</v>
-      </c>
-      <c r="M31">
-        <v>2.35</v>
-      </c>
-      <c r="N31">
-        <v>2.27</v>
-      </c>
-      <c r="O31">
-        <v>1.45</v>
-      </c>
-      <c r="P31">
-        <v>1.44</v>
-      </c>
-      <c r="Q31">
-        <v>2.6</v>
-      </c>
-      <c r="R31">
-        <v>2.38</v>
-      </c>
-      <c r="S31">
-        <v>1.55</v>
-      </c>
-      <c r="T31">
-        <v>1.15</v>
-      </c>
-      <c r="U31">
-        <v>1.27</v>
-      </c>
-      <c r="V31">
-        <v>2.2</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="X31">
+      <c r="AC31">
+        <v>8.5</v>
+      </c>
+      <c r="AD31">
+        <v>2.95</v>
+      </c>
+      <c r="AE31">
+        <v>1.25</v>
+      </c>
+      <c r="AF31">
+        <v>1.43</v>
+      </c>
+      <c r="AG31">
+        <v>1.93</v>
+      </c>
+      <c r="AH31">
+        <v>2.25</v>
+      </c>
+      <c r="AI31">
         <v>3</v>
-      </c>
-      <c r="Y31">
-        <v>1.96</v>
-      </c>
-      <c r="Z31">
-        <v>1.37</v>
-      </c>
-      <c r="AA31">
-        <v>3.33</v>
-      </c>
-      <c r="AB31">
-        <v>1.31</v>
-      </c>
-      <c r="AC31">
-        <v>9</v>
-      </c>
-      <c r="AD31">
-        <v>4.43</v>
-      </c>
-      <c r="AE31">
-        <v>1.57</v>
-      </c>
-      <c r="AF31">
-        <v>2.07</v>
-      </c>
-      <c r="AG31">
-        <v>2.8</v>
-      </c>
-      <c r="AH31">
-        <v>3.56</v>
-      </c>
-      <c r="AI31">
-        <v>5.7</v>
       </c>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2">
         <v>45142</v>
@@ -4162,7 +4162,7 @@
         <v>68</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
         <v>103</v>
@@ -4171,52 +4171,52 @@
         <v>142</v>
       </c>
       <c r="G32">
-        <v>2.46</v>
+        <v>1.77</v>
       </c>
       <c r="H32">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I32">
-        <v>2.76</v>
+        <v>3.9</v>
       </c>
       <c r="J32">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K32">
-        <v>8.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="L32">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M32">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>2.03</v>
+        <v>1.66</v>
       </c>
       <c r="O32">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="P32">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="Q32">
-        <v>2.79</v>
+        <v>3.15</v>
       </c>
       <c r="R32">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="S32">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="T32">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="U32">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="V32">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -4234,33 +4234,33 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>1.69</v>
+        <v>1.49</v>
       </c>
       <c r="AC32">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD32">
-        <v>2.53</v>
+        <v>3.04</v>
       </c>
       <c r="AE32">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AG32">
-        <v>1.43</v>
+        <v>2.1</v>
       </c>
       <c r="AH32">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AI32">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2">
         <v>45142</v>
@@ -4269,7 +4269,7 @@
         <v>68</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
         <v>104</v>
@@ -4278,52 +4278,52 @@
         <v>143</v>
       </c>
       <c r="G33">
+        <v>2.45</v>
+      </c>
+      <c r="H33">
+        <v>3.1</v>
+      </c>
+      <c r="I33">
+        <v>2.75</v>
+      </c>
+      <c r="J33">
+        <v>1.02</v>
+      </c>
+      <c r="K33">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L33">
+        <v>1.29</v>
+      </c>
+      <c r="M33">
+        <v>3.2</v>
+      </c>
+      <c r="N33">
+        <v>2.05</v>
+      </c>
+      <c r="O33">
+        <v>1.72</v>
+      </c>
+      <c r="P33">
+        <v>1.41</v>
+      </c>
+      <c r="Q33">
+        <v>2.79</v>
+      </c>
+      <c r="R33">
         <v>1.77</v>
       </c>
-      <c r="H33">
-        <v>3.7</v>
-      </c>
-      <c r="I33">
-        <v>3.9</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>1.62</v>
-      </c>
-      <c r="O33">
-        <v>2.15</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>1.67</v>
-      </c>
       <c r="S33">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -4341,33 +4341,33 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
         <v>45142</v>
@@ -4376,7 +4376,7 @@
         <v>68</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
         <v>105</v>
@@ -4385,91 +4385,91 @@
         <v>144</v>
       </c>
       <c r="G34">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H34">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I34">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="J34">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K34">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="L34">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="M34">
-        <v>2.95</v>
+        <v>2.35</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O34">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="P34">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="Q34">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="S34">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="T34">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="U34">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="V34">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="AB34">
-        <v>1.6</v>
+        <v>1.31</v>
       </c>
       <c r="AC34">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD34">
-        <v>2.95</v>
+        <v>4.43</v>
       </c>
       <c r="AE34">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="AF34">
-        <v>1.43</v>
+        <v>2.07</v>
       </c>
       <c r="AG34">
-        <v>1.93</v>
+        <v>2.8</v>
       </c>
       <c r="AH34">
-        <v>2.25</v>
+        <v>3.56</v>
       </c>
       <c r="AI34">
-        <v>3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4513,10 +4513,10 @@
         <v>3.25</v>
       </c>
       <c r="N35">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="O35">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="P35">
         <v>1.37</v>
@@ -4599,7 +4599,7 @@
         <v>146</v>
       </c>
       <c r="G36">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="H36">
         <v>3.15</v>
@@ -4620,7 +4620,7 @@
         <v>3.2</v>
       </c>
       <c r="N36">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="O36">
         <v>1.8</v>
@@ -4706,13 +4706,13 @@
         <v>147</v>
       </c>
       <c r="G37">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H37">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I37">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="J37">
         <v>1.04</v>
@@ -4727,10 +4727,10 @@
         <v>4</v>
       </c>
       <c r="N37">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="O37">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="P37">
         <v>1.33</v>
@@ -4813,13 +4813,13 @@
         <v>148</v>
       </c>
       <c r="G38">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I38">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="J38">
         <v>1.03</v>

--- a/Jogos_do_Dia/2023-08-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="149">
   <si>
     <t>League</t>
   </si>
@@ -133,42 +133,39 @@
     <t>Romania Liga I</t>
   </si>
   <si>
+    <t>Estonia Meistriliiga</t>
+  </si>
+  <si>
+    <t>Bulgaria First League</t>
+  </si>
+  <si>
     <t>Poland Ekstraklasa</t>
   </si>
   <si>
-    <t>Bulgaria First League</t>
-  </si>
-  <si>
-    <t>Estonia Meistriliiga</t>
-  </si>
-  <si>
     <t>Austria 2. Liga</t>
   </si>
   <si>
     <t>Germany 2. Bundesliga</t>
   </si>
   <si>
+    <t>Norway First Division</t>
+  </si>
+  <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
+    <t>Russia Russian Premier League</t>
+  </si>
+  <si>
     <t>Germany 3. Liga</t>
   </si>
   <si>
-    <t>Russia Russian Premier League</t>
-  </si>
-  <si>
-    <t>Norway First Division</t>
-  </si>
-  <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
     <t>Switzerland Challenge League</t>
   </si>
   <si>
     <t>Croatia Prva HNL</t>
   </si>
   <si>
-    <t>Slovenia PrvaLiga</t>
-  </si>
-  <si>
     <t>Slovakia Super Liga</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
     <t>14:00:00</t>
   </si>
   <si>
+    <t>14:15:00</t>
+  </si>
+  <si>
     <t>14:30:00</t>
   </si>
   <si>
@@ -241,7 +241,7 @@
     <t>FC Seoul</t>
   </si>
   <si>
-    <t>Hangzhou</t>
+    <t>Zhejiang FC</t>
   </si>
   <si>
     <t>Shandong Luneng</t>
@@ -262,15 +262,15 @@
     <t>UTA Arad</t>
   </si>
   <si>
+    <t>Tallinna FC Flora</t>
+  </si>
+  <si>
+    <t>Cherno More</t>
+  </si>
+  <si>
     <t>Jagiellonia Białystok</t>
   </si>
   <si>
-    <t>Cherno More</t>
-  </si>
-  <si>
-    <t>Tallinna FC Flora</t>
-  </si>
-  <si>
     <t>St. Pölten</t>
   </si>
   <si>
@@ -286,48 +286,45 @@
     <t>Horn</t>
   </si>
   <si>
+    <t>Paderborn</t>
+  </si>
+  <si>
     <t>Hertha BSC</t>
   </si>
   <si>
-    <t>Paderborn</t>
+    <t>Skeid</t>
+  </si>
+  <si>
+    <t>Silkeborg</t>
+  </si>
+  <si>
+    <t>Krasnodar</t>
   </si>
   <si>
     <t>Hallescher FC</t>
   </si>
   <si>
-    <t>Krasnodar</t>
-  </si>
-  <si>
-    <t>Skeid</t>
-  </si>
-  <si>
-    <t>Silkeborg</t>
-  </si>
-  <si>
     <t>Thun</t>
   </si>
   <si>
     <t>Lokomotiva Zagreb</t>
   </si>
   <si>
-    <t>Aluminij</t>
+    <t>FC Schaffhausen</t>
   </si>
   <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>FC Schaffhausen</t>
-  </si>
-  <si>
     <t>Sion</t>
   </si>
   <si>
+    <t>Ried</t>
+  </si>
+  <si>
     <t>Ružomberok</t>
   </si>
   <si>
-    <t>Ried</t>
-  </si>
-  <si>
     <t>ŁKS Łódź</t>
   </si>
   <si>
@@ -379,15 +376,15 @@
     <t>CSM Iaşi</t>
   </si>
   <si>
+    <t>Kuressaare</t>
+  </si>
+  <si>
+    <t>Etar</t>
+  </si>
+  <si>
     <t>Widzew Łódź</t>
   </si>
   <si>
-    <t>Etar</t>
-  </si>
-  <si>
-    <t>Kuressaare</t>
-  </si>
-  <si>
     <t>Lafnitz</t>
   </si>
   <si>
@@ -403,46 +400,43 @@
     <t>Liefering</t>
   </si>
   <si>
+    <t>Osnabrück</t>
+  </si>
+  <si>
     <t>Wehen Wiesbaden</t>
   </si>
   <si>
-    <t>Osnabrück</t>
+    <t>Fredrikstad</t>
+  </si>
+  <si>
+    <t>Vejle</t>
+  </si>
+  <si>
+    <t>Olimpiyets</t>
   </si>
   <si>
     <t>Rot-Weiss Essen</t>
   </si>
   <si>
-    <t>Olimpiyets</t>
-  </si>
-  <si>
-    <t>Fredrikstad</t>
-  </si>
-  <si>
-    <t>Vejle</t>
-  </si>
-  <si>
     <t>Baden</t>
   </si>
   <si>
     <t>Varaždin</t>
   </si>
   <si>
-    <t>Koper</t>
+    <t>Wil</t>
   </si>
   <si>
     <t>Arda</t>
   </si>
   <si>
-    <t>Wil</t>
-  </si>
-  <si>
     <t>Bellinzona</t>
   </si>
   <si>
+    <t>Admira</t>
+  </si>
+  <si>
     <t>Skalica</t>
-  </si>
-  <si>
-    <t>Admira</t>
   </si>
   <si>
     <t>Korona Kielce</t>
@@ -828,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI40"/>
+  <dimension ref="A1:AI39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +943,7 @@
         <v>45142</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>25</v>
@@ -958,7 +952,7 @@
         <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2">
         <v>2.15</v>
@@ -1009,10 +1003,10 @@
         <v>1.7</v>
       </c>
       <c r="W2">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X2">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="Y2">
         <v>1.7</v>
@@ -1056,7 +1050,7 @@
         <v>45142</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>25</v>
@@ -1065,7 +1059,7 @@
         <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3">
         <v>2.3</v>
@@ -1116,10 +1110,10 @@
         <v>1.57</v>
       </c>
       <c r="W3">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="X3">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y3">
         <v>1.79</v>
@@ -1163,7 +1157,7 @@
         <v>45142</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1172,7 +1166,7 @@
         <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4">
         <v>3.25</v>
@@ -1223,10 +1217,10 @@
         <v>1.35</v>
       </c>
       <c r="W4">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="X4">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="Y4">
         <v>1.36</v>
@@ -1270,7 +1264,7 @@
         <v>45142</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -1279,7 +1273,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5">
         <v>1.25</v>
@@ -1330,10 +1324,10 @@
         <v>3.8</v>
       </c>
       <c r="W5">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="X5">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="Y5">
         <v>1.71</v>
@@ -1377,7 +1371,7 @@
         <v>45142</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -1386,7 +1380,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6">
         <v>1.47</v>
@@ -1437,10 +1431,10 @@
         <v>2.61</v>
       </c>
       <c r="W6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X6">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Y6">
         <v>1.62</v>
@@ -1484,7 +1478,7 @@
         <v>45142</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -1493,7 +1487,7 @@
         <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7">
         <v>1.83</v>
@@ -1544,10 +1538,10 @@
         <v>1.95</v>
       </c>
       <c r="W7">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="X7">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="Y7">
         <v>1.55</v>
@@ -1591,7 +1585,7 @@
         <v>45142</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -1600,7 +1594,7 @@
         <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8">
         <v>4.02</v>
@@ -1651,10 +1645,10 @@
         <v>1.26</v>
       </c>
       <c r="W8">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="X8">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="Y8">
         <v>1.56</v>
@@ -1698,7 +1692,7 @@
         <v>45142</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>18</v>
@@ -1707,16 +1701,16 @@
         <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="H9">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I9">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J9">
         <v>1.07</v>
@@ -1731,10 +1725,10 @@
         <v>3.28</v>
       </c>
       <c r="N9">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="O9">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P9">
         <v>1.42</v>
@@ -1758,10 +1752,10 @@
         <v>1.65</v>
       </c>
       <c r="W9">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="X9">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="Y9">
         <v>1.27</v>
@@ -1805,7 +1799,7 @@
         <v>45142</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1814,16 +1808,16 @@
         <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="H10">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I10">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="J10">
         <v>1.07</v>
@@ -1832,16 +1826,16 @@
         <v>6.7</v>
       </c>
       <c r="L10">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M10">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="N10">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P10">
         <v>1.51</v>
@@ -1865,10 +1859,10 @@
         <v>1.6</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>1.05</v>
@@ -1912,103 +1906,103 @@
         <v>45142</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11">
-        <v>2.3</v>
+        <v>1.22</v>
       </c>
       <c r="H11">
-        <v>3.25</v>
+        <v>6.25</v>
       </c>
       <c r="I11">
-        <v>2.8</v>
+        <v>7.98</v>
       </c>
       <c r="J11">
+        <v>1.01</v>
+      </c>
+      <c r="K11">
+        <v>28</v>
+      </c>
+      <c r="L11">
+        <v>1.09</v>
+      </c>
+      <c r="M11">
+        <v>5.65</v>
+      </c>
+      <c r="N11">
+        <v>1.4</v>
+      </c>
+      <c r="O11">
+        <v>2.73</v>
+      </c>
+      <c r="P11">
+        <v>1.21</v>
+      </c>
+      <c r="Q11">
+        <v>3.94</v>
+      </c>
+      <c r="R11">
+        <v>1.9</v>
+      </c>
+      <c r="S11">
+        <v>1.83</v>
+      </c>
+      <c r="T11">
         <v>1.05</v>
       </c>
-      <c r="K11">
-        <v>9.5</v>
-      </c>
-      <c r="L11">
-        <v>1.27</v>
-      </c>
-      <c r="M11">
-        <v>3.4</v>
-      </c>
-      <c r="N11">
-        <v>1.87</v>
-      </c>
-      <c r="O11">
-        <v>1.87</v>
-      </c>
-      <c r="P11">
-        <v>1.37</v>
-      </c>
-      <c r="Q11">
-        <v>2.8</v>
-      </c>
-      <c r="R11">
-        <v>1.68</v>
-      </c>
-      <c r="S11">
-        <v>2.05</v>
-      </c>
-      <c r="T11">
-        <v>1.39</v>
-      </c>
       <c r="U11">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="V11">
-        <v>1.58</v>
+        <v>3.5</v>
       </c>
       <c r="W11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Y11">
-        <v>1.62</v>
+        <v>2.22</v>
       </c>
       <c r="Z11">
-        <v>0.99</v>
+        <v>2</v>
       </c>
       <c r="AA11">
-        <v>2.61</v>
+        <v>4.22</v>
       </c>
       <c r="AB11">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>2.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -2019,7 +2013,7 @@
         <v>45142</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -2028,16 +2022,16 @@
         <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G12">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H12">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I12">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="J12">
         <v>1.05</v>
@@ -2052,10 +2046,10 @@
         <v>3.75</v>
       </c>
       <c r="N12">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O12">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <v>1.36</v>
@@ -2126,103 +2120,103 @@
         <v>45142</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13">
-        <v>1.2</v>
+        <v>2.28</v>
       </c>
       <c r="H13">
-        <v>6.25</v>
+        <v>3.4</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>2.79</v>
       </c>
       <c r="J13">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K13">
-        <v>28</v>
+        <v>9.5</v>
       </c>
       <c r="L13">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="M13">
-        <v>5.65</v>
+        <v>3.4</v>
       </c>
       <c r="N13">
-        <v>1.42</v>
+        <v>1.91</v>
       </c>
       <c r="O13">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="P13">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="Q13">
-        <v>3.94</v>
+        <v>2.8</v>
       </c>
       <c r="R13">
+        <v>1.68</v>
+      </c>
+      <c r="S13">
+        <v>2.05</v>
+      </c>
+      <c r="T13">
+        <v>1.39</v>
+      </c>
+      <c r="U13">
+        <v>1.3</v>
+      </c>
+      <c r="V13">
+        <v>1.58</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1.62</v>
+      </c>
+      <c r="Z13">
+        <v>0.99</v>
+      </c>
+      <c r="AA13">
+        <v>2.61</v>
+      </c>
+      <c r="AB13">
+        <v>2.1</v>
+      </c>
+      <c r="AC13">
+        <v>8</v>
+      </c>
+      <c r="AD13">
+        <v>1.91</v>
+      </c>
+      <c r="AE13">
+        <v>1.17</v>
+      </c>
+      <c r="AF13">
+        <v>1.3</v>
+      </c>
+      <c r="AG13">
+        <v>1.54</v>
+      </c>
+      <c r="AH13">
         <v>1.9</v>
       </c>
-      <c r="S13">
-        <v>1.83</v>
-      </c>
-      <c r="T13">
-        <v>1.05</v>
-      </c>
-      <c r="U13">
-        <v>1.09</v>
-      </c>
-      <c r="V13">
-        <v>3.5</v>
-      </c>
-      <c r="W13">
-        <v>1.91</v>
-      </c>
-      <c r="X13">
-        <v>1.8</v>
-      </c>
-      <c r="Y13">
-        <v>2.22</v>
-      </c>
-      <c r="Z13">
-        <v>2</v>
-      </c>
-      <c r="AA13">
-        <v>4.22</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2233,7 +2227,7 @@
         <v>45142</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2242,16 +2236,16 @@
         <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="H14">
         <v>3.75</v>
       </c>
       <c r="I14">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="J14">
         <v>1.04</v>
@@ -2266,10 +2260,10 @@
         <v>4.2</v>
       </c>
       <c r="N14">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="O14">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P14">
         <v>1.3</v>
@@ -2278,10 +2272,10 @@
         <v>3.25</v>
       </c>
       <c r="R14">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T14">
         <v>1.15</v>
@@ -2293,7 +2287,7 @@
         <v>2.15</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -2329,7 +2323,7 @@
         <v>3.2</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2340,7 +2334,7 @@
         <v>45142</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2349,16 +2343,16 @@
         <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G15">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H15">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="I15">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="J15">
         <v>1.03</v>
@@ -2376,7 +2370,7 @@
         <v>1.57</v>
       </c>
       <c r="O15">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P15">
         <v>1.27</v>
@@ -2403,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2447,7 +2441,7 @@
         <v>45142</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2456,16 +2450,16 @@
         <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="H16">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I16">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="J16">
         <v>1.05</v>
@@ -2480,10 +2474,10 @@
         <v>3.75</v>
       </c>
       <c r="N16">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P16">
         <v>1.35</v>
@@ -2507,10 +2501,10 @@
         <v>1.3</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2522,13 +2516,13 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AC16">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AE16">
         <v>1.22</v>
@@ -2554,7 +2548,7 @@
         <v>45142</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2563,16 +2557,16 @@
         <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G17">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H17">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="I17">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J17">
         <v>1.03</v>
@@ -2587,7 +2581,7 @@
         <v>4.33</v>
       </c>
       <c r="N17">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="O17">
         <v>2.2</v>
@@ -2617,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2661,7 +2655,7 @@
         <v>45142</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2670,13 +2664,13 @@
         <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G18">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I18">
         <v>2.1</v>
@@ -2694,10 +2688,10 @@
         <v>4.2</v>
       </c>
       <c r="N18">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="O18">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="P18">
         <v>1.25</v>
@@ -2706,10 +2700,10 @@
         <v>3.6</v>
       </c>
       <c r="R18">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S18">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T18">
         <v>1.66</v>
@@ -2736,22 +2730,22 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AC18">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="AD18">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF18">
         <v>1.35</v>
       </c>
       <c r="AG18">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AH18">
         <v>2.07</v>
@@ -2768,7 +2762,7 @@
         <v>45142</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2777,61 +2771,61 @@
         <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G19">
         <v>1.61</v>
       </c>
       <c r="H19">
-        <v>4.04</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>4.76</v>
+        <v>4.35</v>
       </c>
       <c r="J19">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K19">
-        <v>14.1</v>
+        <v>15.5</v>
       </c>
       <c r="L19">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="M19">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="N19">
-        <v>1.67</v>
+        <v>1.51</v>
       </c>
       <c r="O19">
-        <v>2.23</v>
+        <v>2.46</v>
       </c>
       <c r="P19">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Q19">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="R19">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="T19">
         <v>1.18</v>
       </c>
       <c r="U19">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="V19">
         <v>2.25</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2846,25 +2840,25 @@
         <v>1.45</v>
       </c>
       <c r="AC19">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD19">
-        <v>3.31</v>
+        <v>3.19</v>
       </c>
       <c r="AE19">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AF19">
         <v>1.25</v>
       </c>
       <c r="AG19">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AH19">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AI19">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2875,7 +2869,7 @@
         <v>45142</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2884,52 +2878,52 @@
         <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="H20">
-        <v>3.95</v>
+        <v>4.04</v>
       </c>
       <c r="I20">
-        <v>4.6</v>
+        <v>4.76</v>
       </c>
       <c r="J20">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K20">
-        <v>15.5</v>
+        <v>14.1</v>
       </c>
       <c r="L20">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="M20">
-        <v>4.4</v>
+        <v>4.05</v>
       </c>
       <c r="N20">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="O20">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="P20">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Q20">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="R20">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="S20">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
         <v>1.18</v>
       </c>
       <c r="U20">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="V20">
         <v>2.25</v>
@@ -2938,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2953,25 +2947,25 @@
         <v>1.45</v>
       </c>
       <c r="AC20">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD20">
-        <v>3.19</v>
+        <v>3.31</v>
       </c>
       <c r="AE20">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AF20">
         <v>1.25</v>
       </c>
       <c r="AG20">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AH20">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AI20">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2982,103 +2976,103 @@
         <v>45142</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
         <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21">
-        <v>2.35</v>
+        <v>2.98</v>
       </c>
       <c r="H21">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I21">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="J21">
         <v>1.05</v>
       </c>
       <c r="K21">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="L21">
+        <v>1.3</v>
+      </c>
+      <c r="M21">
+        <v>3.3</v>
+      </c>
+      <c r="N21">
+        <v>2.01</v>
+      </c>
+      <c r="O21">
+        <v>1.85</v>
+      </c>
+      <c r="P21">
+        <v>1.4</v>
+      </c>
+      <c r="Q21">
+        <v>2.75</v>
+      </c>
+      <c r="R21">
+        <v>1.73</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>1.7</v>
+      </c>
+      <c r="U21">
         <v>1.25</v>
       </c>
-      <c r="M21">
-        <v>3.6</v>
-      </c>
-      <c r="N21">
-        <v>1.85</v>
-      </c>
-      <c r="O21">
-        <v>1.9</v>
-      </c>
-      <c r="P21">
-        <v>1.36</v>
-      </c>
-      <c r="Q21">
-        <v>2.87</v>
-      </c>
-      <c r="R21">
-        <v>1.63</v>
-      </c>
-      <c r="S21">
-        <v>2.1</v>
-      </c>
-      <c r="T21">
-        <v>1.38</v>
-      </c>
-      <c r="U21">
-        <v>1.3</v>
-      </c>
       <c r="V21">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AB21">
-        <v>1.68</v>
+        <v>2.25</v>
       </c>
       <c r="AC21">
-        <v>8.9</v>
+        <v>5.75</v>
       </c>
       <c r="AD21">
-        <v>2.51</v>
+        <v>1.8</v>
       </c>
       <c r="AE21">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="AF21">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AG21">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="AH21">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="AI21">
-        <v>3.5</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -3089,7 +3083,7 @@
         <v>45142</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -3098,94 +3092,94 @@
         <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="H22">
-        <v>4.38</v>
+        <v>3.7</v>
       </c>
       <c r="I22">
-        <v>5.83</v>
+        <v>4.4</v>
       </c>
       <c r="J22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K22">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L22">
+        <v>1.29</v>
+      </c>
+      <c r="M22">
+        <v>3.5</v>
+      </c>
+      <c r="N22">
+        <v>1.9</v>
+      </c>
+      <c r="O22">
+        <v>1.96</v>
+      </c>
+      <c r="P22">
+        <v>1.36</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>1.91</v>
+      </c>
+      <c r="T22">
+        <v>1.18</v>
+      </c>
+      <c r="U22">
+        <v>1.25</v>
+      </c>
+      <c r="V22">
+        <v>2.1</v>
+      </c>
+      <c r="W22">
+        <v>1.5</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>2.35</v>
+      </c>
+      <c r="Z22">
+        <v>0.88</v>
+      </c>
+      <c r="AA22">
+        <v>3.23</v>
+      </c>
+      <c r="AB22">
+        <v>1.37</v>
+      </c>
+      <c r="AC22">
+        <v>9</v>
+      </c>
+      <c r="AD22">
+        <v>3.83</v>
+      </c>
+      <c r="AE22">
         <v>1.27</v>
       </c>
-      <c r="M22">
-        <v>3.32</v>
-      </c>
-      <c r="N22">
-        <v>1.97</v>
-      </c>
-      <c r="O22">
-        <v>1.89</v>
-      </c>
-      <c r="P22">
-        <v>1.38</v>
-      </c>
-      <c r="Q22">
-        <v>2.91</v>
-      </c>
-      <c r="R22">
-        <v>1.95</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>1.13</v>
-      </c>
-      <c r="U22">
-        <v>1.24</v>
-      </c>
-      <c r="V22">
-        <v>2.39</v>
-      </c>
-      <c r="W22">
-        <v>3</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>1.46</v>
-      </c>
-      <c r="Z22">
-        <v>1.12</v>
-      </c>
-      <c r="AA22">
-        <v>2.58</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3196,103 +3190,103 @@
         <v>45142</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
         <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G23">
-        <v>3.4</v>
+        <v>1.67</v>
       </c>
       <c r="H23">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K23">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L23">
+        <v>1.27</v>
+      </c>
+      <c r="M23">
+        <v>3.32</v>
+      </c>
+      <c r="N23">
+        <v>2.07</v>
+      </c>
+      <c r="O23">
+        <v>1.77</v>
+      </c>
+      <c r="P23">
+        <v>1.38</v>
+      </c>
+      <c r="Q23">
+        <v>2.91</v>
+      </c>
+      <c r="R23">
+        <v>1.95</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>1.13</v>
+      </c>
+      <c r="U23">
+        <v>1.24</v>
+      </c>
+      <c r="V23">
+        <v>2.39</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>0.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.46</v>
+      </c>
+      <c r="Z23">
+        <v>1.12</v>
+      </c>
+      <c r="AA23">
+        <v>2.58</v>
+      </c>
+      <c r="AB23">
+        <v>1.46</v>
+      </c>
+      <c r="AC23">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AD23">
+        <v>3.32</v>
+      </c>
+      <c r="AE23">
         <v>1.3</v>
       </c>
-      <c r="M23">
-        <v>3.3</v>
-      </c>
-      <c r="N23">
-        <v>1.95</v>
-      </c>
-      <c r="O23">
-        <v>1.8</v>
-      </c>
-      <c r="P23">
-        <v>1.4</v>
-      </c>
-      <c r="Q23">
-        <v>2.75</v>
-      </c>
-      <c r="R23">
-        <v>1.73</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23">
-        <v>1.7</v>
-      </c>
-      <c r="U23">
-        <v>1.25</v>
-      </c>
-      <c r="V23">
-        <v>1.33</v>
-      </c>
-      <c r="W23">
-        <v>0.71</v>
-      </c>
-      <c r="X23">
-        <v>1.86</v>
-      </c>
-      <c r="Y23">
-        <v>1.35</v>
-      </c>
-      <c r="Z23">
-        <v>1.22</v>
-      </c>
-      <c r="AA23">
-        <v>2.57</v>
-      </c>
-      <c r="AB23">
-        <v>2.25</v>
-      </c>
-      <c r="AC23">
-        <v>5.75</v>
-      </c>
-      <c r="AD23">
-        <v>1.8</v>
-      </c>
-      <c r="AE23">
-        <v>1.13</v>
-      </c>
       <c r="AF23">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="AG23">
-        <v>1.44</v>
+        <v>2.01</v>
       </c>
       <c r="AH23">
-        <v>1.78</v>
+        <v>2.62</v>
       </c>
       <c r="AI23">
-        <v>2.17</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3306,22 +3300,22 @@
         <v>64</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G24">
-        <v>1.73</v>
+        <v>1.99</v>
       </c>
       <c r="H24">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I24">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="J24">
         <v>1.05</v>
@@ -3330,76 +3324,76 @@
         <v>9</v>
       </c>
       <c r="L24">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M24">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N24">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="O24">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="P24">
         <v>1.36</v>
       </c>
       <c r="Q24">
+        <v>2.87</v>
+      </c>
+      <c r="R24">
+        <v>1.63</v>
+      </c>
+      <c r="S24">
+        <v>2.1</v>
+      </c>
+      <c r="T24">
+        <v>1.38</v>
+      </c>
+      <c r="U24">
+        <v>1.3</v>
+      </c>
+      <c r="V24">
+        <v>1.6</v>
+      </c>
+      <c r="W24">
         <v>3</v>
       </c>
-      <c r="R24">
-        <v>1.8</v>
-      </c>
-      <c r="S24">
-        <v>1.91</v>
-      </c>
-      <c r="T24">
-        <v>1.18</v>
-      </c>
-      <c r="U24">
-        <v>1.25</v>
-      </c>
-      <c r="V24">
-        <v>2.1</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="AC24">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="AD24">
-        <v>3.83</v>
+        <v>2.51</v>
       </c>
       <c r="AE24">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AF24">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AG24">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="AH24">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AI24">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3419,16 +3413,16 @@
         <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G25">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="H25">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="J25">
         <v>1.02</v>
@@ -3443,10 +3437,10 @@
         <v>4.75</v>
       </c>
       <c r="N25">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="O25">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="P25">
         <v>1.29</v>
@@ -3470,7 +3464,7 @@
         <v>2.2</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -3485,19 +3479,19 @@
         <v>2.57</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AG25">
         <v>1.91</v>
@@ -3526,7 +3520,7 @@
         <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G26">
         <v>1.66</v>
@@ -3618,7 +3612,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2">
         <v>45142</v>
@@ -3633,94 +3627,94 @@
         <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G27">
-        <v>3.15</v>
+        <v>2.45</v>
       </c>
       <c r="H27">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I27">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="J27">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L27">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="M27">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N27">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="O27">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="P27">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="Q27">
+        <v>3.75</v>
+      </c>
+      <c r="R27">
+        <v>1.5</v>
+      </c>
+      <c r="S27">
+        <v>2.5</v>
+      </c>
+      <c r="T27">
+        <v>1.57</v>
+      </c>
+      <c r="U27">
+        <v>1.25</v>
+      </c>
+      <c r="V27">
+        <v>1.44</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
         <v>3</v>
       </c>
-      <c r="R27">
-        <v>1.69</v>
-      </c>
-      <c r="S27">
-        <v>2.11</v>
-      </c>
-      <c r="T27">
+      <c r="Y27">
+        <v>1.24</v>
+      </c>
+      <c r="Z27">
+        <v>1.24</v>
+      </c>
+      <c r="AA27">
+        <v>2.48</v>
+      </c>
+      <c r="AB27">
+        <v>2.45</v>
+      </c>
+      <c r="AC27">
+        <v>8.6</v>
+      </c>
+      <c r="AD27">
+        <v>1.72</v>
+      </c>
+      <c r="AE27">
+        <v>1.28</v>
+      </c>
+      <c r="AF27">
         <v>1.61</v>
       </c>
-      <c r="U27">
-        <v>1.3</v>
-      </c>
-      <c r="V27">
-        <v>1.38</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>1.5</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>1.5</v>
-      </c>
-      <c r="AB27">
-        <v>2.39</v>
-      </c>
-      <c r="AC27">
-        <v>7.3</v>
-      </c>
-      <c r="AD27">
-        <v>1.87</v>
-      </c>
-      <c r="AE27">
-        <v>1.27</v>
-      </c>
-      <c r="AF27">
-        <v>1.48</v>
-      </c>
       <c r="AG27">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="AH27">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="AI27">
-        <v>3</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3740,16 +3734,16 @@
         <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G28">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H28">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I28">
-        <v>2.95</v>
+        <v>2.74</v>
       </c>
       <c r="J28">
         <v>1.06</v>
@@ -3764,10 +3758,10 @@
         <v>3.4</v>
       </c>
       <c r="N28">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="O28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P28">
         <v>1.4</v>
@@ -3794,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y28">
         <v>1.39</v>
@@ -3847,16 +3841,16 @@
         <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G29">
-        <v>3.2</v>
+        <v>1.33</v>
       </c>
       <c r="H29">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="I29">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="J29">
         <v>1.02</v>
@@ -3865,16 +3859,16 @@
         <v>12</v>
       </c>
       <c r="L29">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="M29">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N29">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O29">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="P29">
         <v>1.25</v>
@@ -3883,170 +3877,170 @@
         <v>3.75</v>
       </c>
       <c r="R29">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="S29">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="T29">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="U29">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="V29">
-        <v>1.44</v>
+        <v>3.5</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X29">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="Y29">
+        <v>1.29</v>
+      </c>
+      <c r="Z29">
+        <v>1.52</v>
+      </c>
+      <c r="AA29">
+        <v>2.81</v>
+      </c>
+      <c r="AB29">
         <v>1.24</v>
       </c>
-      <c r="Z29">
-        <v>1.24</v>
-      </c>
-      <c r="AA29">
-        <v>2.48</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
       <c r="AC29">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF29">
-        <v>1.61</v>
+        <v>1.27</v>
       </c>
       <c r="AG29">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="AH29">
-        <v>2.51</v>
+        <v>1.89</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2">
         <v>45142</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
         <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G30">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H30">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="J30">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K30">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L30">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="M30">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="O30">
-        <v>2.52</v>
+        <v>2</v>
       </c>
       <c r="P30">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="Q30">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="R30">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="S30">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="T30">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="U30">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="V30">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X30">
         <v>1</v>
       </c>
       <c r="Y30">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG30">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="AH30">
-        <v>1.89</v>
+        <v>2.09</v>
       </c>
       <c r="AI30">
-        <v>2.34</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2">
         <v>45142</v>
@@ -4061,16 +4055,16 @@
         <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H31">
         <v>3.35</v>
       </c>
       <c r="I31">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J31">
         <v>1.08</v>
@@ -4085,10 +4079,10 @@
         <v>2.95</v>
       </c>
       <c r="N31">
-        <v>2.15</v>
+        <v>2.01</v>
       </c>
       <c r="O31">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="P31">
         <v>1.46</v>
@@ -4112,7 +4106,7 @@
         <v>1.68</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -4153,7 +4147,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2">
         <v>45142</v>
@@ -4162,64 +4156,64 @@
         <v>68</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
         <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G32">
+        <v>2.46</v>
+      </c>
+      <c r="H32">
+        <v>3.2</v>
+      </c>
+      <c r="I32">
+        <v>2.76</v>
+      </c>
+      <c r="J32">
+        <v>1.02</v>
+      </c>
+      <c r="K32">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L32">
+        <v>1.29</v>
+      </c>
+      <c r="M32">
+        <v>3.2</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>1.72</v>
+      </c>
+      <c r="P32">
+        <v>1.41</v>
+      </c>
+      <c r="Q32">
+        <v>2.79</v>
+      </c>
+      <c r="R32">
         <v>1.77</v>
       </c>
-      <c r="H32">
-        <v>3.7</v>
-      </c>
-      <c r="I32">
-        <v>3.9</v>
-      </c>
-      <c r="J32">
-        <v>1.04</v>
-      </c>
-      <c r="K32">
-        <v>10</v>
-      </c>
-      <c r="L32">
-        <v>1.22</v>
-      </c>
-      <c r="M32">
-        <v>4</v>
-      </c>
-      <c r="N32">
-        <v>1.66</v>
-      </c>
-      <c r="O32">
-        <v>2.15</v>
-      </c>
-      <c r="P32">
+      <c r="S32">
+        <v>1.98</v>
+      </c>
+      <c r="T32">
+        <v>1.43</v>
+      </c>
+      <c r="U32">
         <v>1.32</v>
       </c>
-      <c r="Q32">
-        <v>3.15</v>
-      </c>
-      <c r="R32">
-        <v>1.67</v>
-      </c>
-      <c r="S32">
-        <v>2.1</v>
-      </c>
-      <c r="T32">
-        <v>1.18</v>
-      </c>
-      <c r="U32">
-        <v>1.2</v>
-      </c>
       <c r="V32">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -4234,33 +4228,33 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="AC32">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD32">
-        <v>3.04</v>
+        <v>2.53</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF32">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AG32">
-        <v>2.1</v>
+        <v>1.43</v>
       </c>
       <c r="AH32">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AI32">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2">
         <v>45142</v>
@@ -4269,212 +4263,212 @@
         <v>68</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
         <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G33">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="H33">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I33">
-        <v>2.75</v>
+        <v>4.92</v>
       </c>
       <c r="J33">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K33">
-        <v>8.699999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="L33">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="M33">
-        <v>3.2</v>
+        <v>2.35</v>
       </c>
       <c r="N33">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="O33">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="P33">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q33">
-        <v>2.79</v>
+        <v>2.6</v>
       </c>
       <c r="R33">
-        <v>1.77</v>
+        <v>2.38</v>
       </c>
       <c r="S33">
-        <v>1.98</v>
+        <v>1.55</v>
       </c>
       <c r="T33">
-        <v>1.43</v>
+        <v>1.15</v>
       </c>
       <c r="U33">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="V33">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="AB33">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="AC33">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD33">
-        <v>2.53</v>
+        <v>4.43</v>
       </c>
       <c r="AE33">
-        <v>1.15</v>
+        <v>1.57</v>
       </c>
       <c r="AF33">
-        <v>1.25</v>
+        <v>2.07</v>
       </c>
       <c r="AG33">
-        <v>1.43</v>
+        <v>2.8</v>
       </c>
       <c r="AH33">
-        <v>1.8</v>
+        <v>3.56</v>
       </c>
       <c r="AI33">
-        <v>2.25</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2">
         <v>45142</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
         <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G34">
         <v>1.7</v>
       </c>
       <c r="H34">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I34">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="J34">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K34">
-        <v>7.1</v>
+        <v>9.25</v>
       </c>
       <c r="L34">
+        <v>1.29</v>
+      </c>
+      <c r="M34">
+        <v>3.25</v>
+      </c>
+      <c r="N34">
+        <v>1.82</v>
+      </c>
+      <c r="O34">
+        <v>1.88</v>
+      </c>
+      <c r="P34">
+        <v>1.37</v>
+      </c>
+      <c r="Q34">
+        <v>2.85</v>
+      </c>
+      <c r="R34">
+        <v>1.9</v>
+      </c>
+      <c r="S34">
+        <v>1.8</v>
+      </c>
+      <c r="T34">
+        <v>1.18</v>
+      </c>
+      <c r="U34">
+        <v>1.25</v>
+      </c>
+      <c r="V34">
+        <v>2.1</v>
+      </c>
+      <c r="W34">
+        <v>2</v>
+      </c>
+      <c r="X34">
+        <v>1.23</v>
+      </c>
+      <c r="Y34">
+        <v>1.67</v>
+      </c>
+      <c r="Z34">
+        <v>1.2</v>
+      </c>
+      <c r="AA34">
+        <v>2.87</v>
+      </c>
+      <c r="AB34">
         <v>1.5</v>
       </c>
-      <c r="M34">
-        <v>2.35</v>
-      </c>
-      <c r="N34">
-        <v>2.5</v>
-      </c>
-      <c r="O34">
-        <v>1.5</v>
-      </c>
-      <c r="P34">
+      <c r="AC34">
+        <v>7.5</v>
+      </c>
+      <c r="AD34">
+        <v>3.3</v>
+      </c>
+      <c r="AE34">
+        <v>1.29</v>
+      </c>
+      <c r="AF34">
         <v>1.44</v>
       </c>
-      <c r="Q34">
-        <v>2.6</v>
-      </c>
-      <c r="R34">
-        <v>2.38</v>
-      </c>
-      <c r="S34">
-        <v>1.55</v>
-      </c>
-      <c r="T34">
-        <v>1.15</v>
-      </c>
-      <c r="U34">
-        <v>1.27</v>
-      </c>
-      <c r="V34">
-        <v>2.2</v>
-      </c>
-      <c r="W34">
-        <v>1</v>
-      </c>
-      <c r="X34">
-        <v>3</v>
-      </c>
-      <c r="Y34">
-        <v>1.96</v>
-      </c>
-      <c r="Z34">
-        <v>1.37</v>
-      </c>
-      <c r="AA34">
-        <v>3.33</v>
-      </c>
-      <c r="AB34">
-        <v>1.31</v>
-      </c>
-      <c r="AC34">
-        <v>9</v>
-      </c>
-      <c r="AD34">
-        <v>4.43</v>
-      </c>
-      <c r="AE34">
-        <v>1.57</v>
-      </c>
-      <c r="AF34">
-        <v>2.07</v>
-      </c>
       <c r="AG34">
-        <v>2.8</v>
+        <v>1.76</v>
       </c>
       <c r="AH34">
-        <v>3.56</v>
+        <v>1.9</v>
       </c>
       <c r="AI34">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2">
         <v>45142</v>
@@ -4489,94 +4483,94 @@
         <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G35">
-        <v>1.7</v>
+        <v>2.74</v>
       </c>
       <c r="H35">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="I35">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="J35">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K35">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="L35">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M35">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N35">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="O35">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P35">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="Q35">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T35">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="U35">
         <v>1.25</v>
       </c>
       <c r="V35">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="W35">
-        <v>1.92</v>
+        <v>1.38</v>
       </c>
       <c r="X35">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="Y35">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="Z35">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="AA35">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="AB35">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="AC35">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD35">
+        <v>2.15</v>
+      </c>
+      <c r="AE35">
+        <v>1.36</v>
+      </c>
+      <c r="AF35">
+        <v>1.6</v>
+      </c>
+      <c r="AG35">
+        <v>2</v>
+      </c>
+      <c r="AH35">
+        <v>2.5</v>
+      </c>
+      <c r="AI35">
         <v>3.3</v>
-      </c>
-      <c r="AE35">
-        <v>1.29</v>
-      </c>
-      <c r="AF35">
-        <v>1.44</v>
-      </c>
-      <c r="AG35">
-        <v>1.76</v>
-      </c>
-      <c r="AH35">
-        <v>1.9</v>
-      </c>
-      <c r="AI35">
-        <v>2.7</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -4590,100 +4584,100 @@
         <v>69</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
         <v>107</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G36">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H36">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="I36">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="J36">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K36">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L36">
+        <v>1.22</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>1.67</v>
+      </c>
+      <c r="O36">
+        <v>2.12</v>
+      </c>
+      <c r="P36">
         <v>1.33</v>
       </c>
-      <c r="M36">
-        <v>3.2</v>
-      </c>
-      <c r="N36">
-        <v>1.95</v>
-      </c>
-      <c r="O36">
-        <v>1.8</v>
-      </c>
-      <c r="P36">
-        <v>1.41</v>
-      </c>
       <c r="Q36">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="R36">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T36">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="U36">
         <v>1.25</v>
       </c>
       <c r="V36">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="W36">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>1.42</v>
+        <v>3</v>
       </c>
       <c r="Y36">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="AC36">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD36">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="AE36">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AF36">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AG36">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AH36">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AI36">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4694,103 +4688,103 @@
         <v>45142</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
       </c>
       <c r="F37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G37">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="H37">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I37">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J37">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L37">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="M37">
+        <v>3.4</v>
+      </c>
+      <c r="N37">
+        <v>1.95</v>
+      </c>
+      <c r="O37">
+        <v>1.8</v>
+      </c>
+      <c r="P37">
+        <v>1.4</v>
+      </c>
+      <c r="Q37">
+        <v>2.75</v>
+      </c>
+      <c r="R37">
+        <v>1.8</v>
+      </c>
+      <c r="S37">
+        <v>1.91</v>
+      </c>
+      <c r="T37">
+        <v>1.63</v>
+      </c>
+      <c r="U37">
+        <v>1.28</v>
+      </c>
+      <c r="V37">
+        <v>1.38</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>3</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>2.2</v>
+      </c>
+      <c r="AC37">
+        <v>6.9</v>
+      </c>
+      <c r="AD37">
+        <v>2</v>
+      </c>
+      <c r="AE37">
+        <v>1.34</v>
+      </c>
+      <c r="AF37">
+        <v>1.63</v>
+      </c>
+      <c r="AG37">
+        <v>2.1</v>
+      </c>
+      <c r="AH37">
+        <v>2.87</v>
+      </c>
+      <c r="AI37">
         <v>4</v>
-      </c>
-      <c r="N37">
-        <v>1.75</v>
-      </c>
-      <c r="O37">
-        <v>2.05</v>
-      </c>
-      <c r="P37">
-        <v>1.33</v>
-      </c>
-      <c r="Q37">
-        <v>3.25</v>
-      </c>
-      <c r="R37">
-        <v>1.67</v>
-      </c>
-      <c r="S37">
-        <v>2.1</v>
-      </c>
-      <c r="T37">
-        <v>1.73</v>
-      </c>
-      <c r="U37">
-        <v>1.25</v>
-      </c>
-      <c r="V37">
-        <v>1.33</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>2.5</v>
-      </c>
-      <c r="AC37">
-        <v>7.5</v>
-      </c>
-      <c r="AD37">
-        <v>1.75</v>
-      </c>
-      <c r="AE37">
-        <v>1.25</v>
-      </c>
-      <c r="AF37">
-        <v>1.47</v>
-      </c>
-      <c r="AG37">
-        <v>1.88</v>
-      </c>
-      <c r="AH37">
-        <v>2.4</v>
-      </c>
-      <c r="AI37">
-        <v>3.4</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -4801,103 +4795,103 @@
         <v>45142</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E38" t="s">
         <v>109</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>1.36</v>
       </c>
       <c r="H38">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="I38">
-        <v>2.3</v>
+        <v>6.43</v>
       </c>
       <c r="J38">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>2.09</v>
+        <v>1.62</v>
       </c>
       <c r="O38">
-        <v>1.79</v>
+        <v>2.16</v>
       </c>
       <c r="P38">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AB38">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AH38">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="AI38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -4908,209 +4902,102 @@
         <v>45142</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
         <v>110</v>
       </c>
       <c r="F39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G39">
+        <v>1.53</v>
+      </c>
+      <c r="H39">
+        <v>3.85</v>
+      </c>
+      <c r="I39">
+        <v>5.5</v>
+      </c>
+      <c r="J39">
+        <v>1.08</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39">
         <v>1.4</v>
       </c>
-      <c r="H39">
-        <v>4.6</v>
-      </c>
-      <c r="I39">
-        <v>7</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
       <c r="M39">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="N39">
-        <v>1.51</v>
+        <v>2.16</v>
       </c>
       <c r="O39">
-        <v>2.24</v>
+        <v>1.62</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W39">
-        <v>2.69</v>
+        <v>1.91</v>
       </c>
       <c r="X39">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="Y39">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="Z39">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AA39">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AI39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35">
-      <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="2">
-        <v>45142</v>
-      </c>
-      <c r="C40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40">
-        <v>22</v>
-      </c>
-      <c r="E40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40">
-        <v>1.73</v>
-      </c>
-      <c r="H40">
-        <v>3.4</v>
-      </c>
-      <c r="I40">
-        <v>4.7</v>
-      </c>
-      <c r="J40">
-        <v>1.08</v>
-      </c>
-      <c r="K40">
-        <v>7</v>
-      </c>
-      <c r="L40">
-        <v>1.4</v>
-      </c>
-      <c r="M40">
-        <v>2.85</v>
-      </c>
-      <c r="N40">
-        <v>2.13</v>
-      </c>
-      <c r="O40">
-        <v>1.59</v>
-      </c>
-      <c r="P40">
-        <v>1.46</v>
-      </c>
-      <c r="Q40">
-        <v>2.5</v>
-      </c>
-      <c r="R40">
-        <v>2.2</v>
-      </c>
-      <c r="S40">
-        <v>1.6</v>
-      </c>
-      <c r="T40">
-        <v>1.14</v>
-      </c>
-      <c r="U40">
-        <v>1.27</v>
-      </c>
-      <c r="V40">
-        <v>2.2</v>
-      </c>
-      <c r="W40">
-        <v>1.91</v>
-      </c>
-      <c r="X40">
-        <v>0.8</v>
-      </c>
-      <c r="Y40">
-        <v>1.76</v>
-      </c>
-      <c r="Z40">
-        <v>1.2</v>
-      </c>
-      <c r="AA40">
-        <v>2.96</v>
-      </c>
-      <c r="AB40">
-        <v>1.45</v>
-      </c>
-      <c r="AC40">
-        <v>8</v>
-      </c>
-      <c r="AD40">
-        <v>3.5</v>
-      </c>
-      <c r="AE40">
-        <v>1.19</v>
-      </c>
-      <c r="AF40">
-        <v>1.43</v>
-      </c>
-      <c r="AG40">
-        <v>1.74</v>
-      </c>
-      <c r="AH40">
-        <v>2.13</v>
-      </c>
-      <c r="AI40">
         <v>2.63</v>
       </c>
     </row>
